--- a/Plannings de la semaine/Planning prévisionnel.xlsx
+++ b/Plannings de la semaine/Planning prévisionnel.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Cours Exia\Projet-Exia-Ces-Esport\Plannings de la semaine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="B385169310FD3674092517105458E0792BFE26B9" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{CEB00B91-AC42-4138-8817-FD8216F2B0CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Liste de tâches'!$A$3:$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Liste de tâches'!$A$3:$C$50</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t xml:space="preserve">
 Liste de tâches</t>
@@ -64,9 +65,6 @@
   </si>
   <si>
     <t>Nicolas et Louis</t>
-  </si>
-  <si>
-    <t>Calcul des pertes du rapport Signal/Bruit etc</t>
   </si>
   <si>
     <t>Charles</t>
@@ -663,11 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -683,8 +681,8 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="1" t="str">
-        <f>CONCATENATE(COUNTA($A$4:$A$51), "/", COUNTA($C$4:$C$51), " terminée(s)  ")</f>
-        <v xml:space="preserve">0/22 terminée(s)  </v>
+        <f>CONCATENATE(COUNTA($A$4:$A$50), "/", COUNTA($C$4:$C$50), " terminée(s)  ")</f>
+        <v xml:space="preserve">0/21 terminée(s)  </v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -751,11 +749,11 @@
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1">
@@ -763,216 +761,210 @@
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.25" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.25" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>10</v>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.25" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>14</v>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.25" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>14</v>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.25" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.25" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.25" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.25" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.25" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>32</v>
+      <c r="D22" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.25" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>14</v>
+      <c r="C23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.25" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>8</v>
+      <c r="D24" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="26.25" customHeight="1">
       <c r="A26" s="15"/>
@@ -1118,24 +1110,18 @@
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
     </row>
-    <row r="50" spans="1:4" ht="26.25" customHeight="1">
+    <row r="50" spans="1:4" ht="22.5" hidden="1" customHeight="1">
       <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
     </row>
-    <row r="51" spans="1:4" ht="22.5" hidden="1" customHeight="1">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:C51" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:XFD51">
+  <conditionalFormatting sqref="A4:XFD50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK($A4))</formula>
     </cfRule>
